--- a/Registro_Actividades_Sistema.xlsx
+++ b/Registro_Actividades_Sistema.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Actividad</t>
   </si>
@@ -45,9 +45,6 @@
     <t>11:00am</t>
   </si>
   <si>
-    <t>Lista de actividades para el sistema</t>
-  </si>
-  <si>
     <t>Todos</t>
   </si>
   <si>
@@ -70,6 +67,15 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Lista de actividades para el sistema_1.1</t>
+  </si>
+  <si>
+    <t>Lista de actividades para el sistema_1</t>
+  </si>
+  <si>
+    <t>9:45am</t>
   </si>
 </sst>
 </file>
@@ -411,16 +417,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -443,15 +450,15 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>42116</v>
@@ -468,7 +475,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -480,15 +487,15 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -497,16 +504,39 @@
         <v>42118</v>
       </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" s="2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>42118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
